--- a/Code/Matlab/Analysis/DampedLeg_Krnacik/Haonan/3DPrinted_Torsion_Spring/torqueTest/FirstOrderStartIndex.xlsx
+++ b/Code/Matlab/Analysis/DampedLeg_Krnacik/Haonan/3DPrinted_Torsion_Spring/torqueTest/FirstOrderStartIndex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Quadruped_Robot\Code\Matlab\Analysis\DampedLeg_Krnacik\Haonan\3DPrinted_Torsion_Spring\torqueTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF7A998-29B9-4685-99EF-4259AD476E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D81EA2F-6F8A-4DB0-8DAB-15EA19978542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-135" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2L2LT4ST_37T" sheetId="1" r:id="rId1"/>
@@ -167,6 +167,61 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>2L2LT4ST_37T</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -509,6 +564,69 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Torque Applied to Spring (Nm)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1000"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -557,6 +675,84 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Spring Constant (Nm/rad)</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Damping Constant (Nms/rad)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1751,6 +1947,61 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>2L5LT4ST_37T</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1840,7 +2091,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>k - CCW loading</c:v>
+            <c:v>k - CCW Loading</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -2093,6 +2344,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Torque</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Applied to Spring (Nm)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2141,6 +2452,75 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Spring Constant (Nm/rad)</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Damping</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Constant (Nms/rad)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4924,8 +5304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5677,8 +6057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C6B6A2-2EAA-4A86-A310-58CBA1F5F931}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Code/Matlab/Analysis/DampedLeg_Krnacik/Haonan/3DPrinted_Torsion_Spring/torqueTest/FirstOrderStartIndex.xlsx
+++ b/Code/Matlab/Analysis/DampedLeg_Krnacik/Haonan/3DPrinted_Torsion_Spring/torqueTest/FirstOrderStartIndex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Quadruped_Robot\Code\Matlab\Analysis\DampedLeg_Krnacik\Haonan\3DPrinted_Torsion_Spring\torqueTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D81EA2F-6F8A-4DB0-8DAB-15EA19978542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E716C0F-6FFC-4C2D-BEF3-E5E8D905CADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-135" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2L2LT4ST_37T" sheetId="1" r:id="rId1"/>
@@ -2449,6 +2449,7 @@
         <c:axId val="1325432319"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5558,7 +5559,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5806,7 +5807,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6058,7 +6059,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Code/Matlab/Analysis/DampedLeg_Krnacik/Haonan/3DPrinted_Torsion_Spring/torqueTest/FirstOrderStartIndex.xlsx
+++ b/Code/Matlab/Analysis/DampedLeg_Krnacik/Haonan/3DPrinted_Torsion_Spring/torqueTest/FirstOrderStartIndex.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Quadruped_Robot\Code\Matlab\Analysis\DampedLeg_Krnacik\Haonan\3DPrinted_Torsion_Spring\torqueTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E716C0F-6FFC-4C2D-BEF3-E5E8D905CADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7066BFDD-587F-4DC8-A3AA-0F9B85A19AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-135" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2L2LT4ST_37T" sheetId="1" r:id="rId1"/>
@@ -5306,7 +5306,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5559,7 +5559,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5806,8 +5806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B95A850-7988-4D99-B418-55343BCF56E6}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6058,8 +6058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C6B6A2-2EAA-4A86-A310-58CBA1F5F931}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W16" sqref="W16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
